--- a/src/main/resources/data/search.xlsx
+++ b/src/main/resources/data/search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOS\retoSpotify\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BBA57A-3F1A-48A4-8674-4B4AB32A6619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A31E4D-2329-4E06-91BE-DBE4422AB1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,10 +45,10 @@
     <t>song</t>
   </si>
   <si>
-    <t>validate2</t>
-  </si>
-  <si>
     <t>Liked Songs</t>
+  </si>
+  <si>
+    <t>Diamons</t>
   </si>
 </sst>
 </file>
@@ -366,15 +366,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,11 +387,8 @@
       <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -399,6 +396,9 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/src/main/resources/data/search.xlsx
+++ b/src/main/resources/data/search.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOS\retoSpotify\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A31E4D-2329-4E06-91BE-DBE4422AB1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F05E77-5E25-40B0-A38D-7EEB23E92771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25785" yWindow="975" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -33,22 +28,22 @@
     <t>password</t>
   </si>
   <si>
+    <t>validate1</t>
+  </si>
+  <si>
+    <t>song</t>
+  </si>
+  <si>
     <t>laucasj13</t>
   </si>
   <si>
     <t>Sali0313+</t>
   </si>
   <si>
-    <t>validate1</t>
-  </si>
-  <si>
-    <t>song</t>
-  </si>
-  <si>
     <t>Liked Songs</t>
   </si>
   <si>
-    <t>Diamons</t>
+    <t>Mazas y Catapultas</t>
   </si>
 </sst>
 </file>
@@ -58,7 +53,7 @@
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,7 +99,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -120,7 +115,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -132,7 +127,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -149,7 +144,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -179,12 +174,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -214,6 +226,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -369,10 +398,16 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -382,18 +417,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>

--- a/src/main/resources/data/search.xlsx
+++ b/src/main/resources/data/search.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOS\retoSpotify\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F05E77-5E25-40B0-A38D-7EEB23E92771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{3A92A13F-5516-4000-85F6-4C1E251C627E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-25785" yWindow="975" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="11295" windowWidth="21600" xWindow="-25785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="975"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -44,12 +44,16 @@
   </si>
   <si>
     <t>Mazas y Catapultas</t>
+  </si>
+  <si>
+    <t>songSelect</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,16 +81,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -103,10 +107,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -141,7 +145,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -193,7 +197,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -304,21 +308,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -335,7 +339,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -387,29 +391,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.85546875" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.42578125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.28515625" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.85546875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,8 +426,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -436,8 +443,11 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/data/search.xlsx
+++ b/src/main/resources/data/search.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>songSelect</t>
+  </si>
+  <si>
+    <t>Dibújame</t>
   </si>
 </sst>
 </file>
@@ -407,10 +410,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.85546875" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.42578125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.28515625" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.85546875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">

--- a/src/main/resources/data/search.xlsx
+++ b/src/main/resources/data/search.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOS\retoSpotify\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{3A92A13F-5516-4000-85F6-4C1E251C627E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944FB2B8-1E11-460B-B96E-788A2DB6B1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="11295" windowWidth="21600" xWindow="-25785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="975"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" r:id="rId1" sheetId="1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -34,12 +34,6 @@
     <t>song</t>
   </si>
   <si>
-    <t>laucasj13</t>
-  </si>
-  <si>
-    <t>Sali0313+</t>
-  </si>
-  <si>
     <t>Liked Songs</t>
   </si>
   <si>
@@ -49,18 +43,28 @@
     <t>songSelect</t>
   </si>
   <si>
-    <t>Dibújame</t>
+    <t>est.cjlucas@smart.edu.co</t>
+  </si>
+  <si>
+    <t>LucasCast13*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,17 +87,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -110,10 +117,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -148,7 +155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -200,7 +207,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -311,21 +318,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -342,7 +349,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -394,26 +401,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -430,27 +438,30 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{D03727EC-9BF1-45C9-9E00-9D6C01BC584D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/data/search.xlsx
+++ b/src/main/resources/data/search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOS\retoSpotify\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944FB2B8-1E11-460B-B96E-788A2DB6B1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5104682-01AD-4BF0-859A-5699DC1E5B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,10 +43,10 @@
     <t>songSelect</t>
   </si>
   <si>
-    <t>est.cjlucas@smart.edu.co</t>
-  </si>
-  <si>
-    <t>LucasCast13*</t>
+    <t>laucasj13</t>
+  </si>
+  <si>
+    <t>Sali0313+</t>
   </si>
 </sst>
 </file>
@@ -412,12 +412,12 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
@@ -460,7 +460,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{D03727EC-9BF1-45C9-9E00-9D6C01BC584D}"/>
+    <hyperlink ref="A2" r:id="rId1" display="est.cjlucas@smart.edu.co" xr:uid="{D03727EC-9BF1-45C9-9E00-9D6C01BC584D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/data/search.xlsx
+++ b/src/main/resources/data/search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOS\retoSpotify\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5104682-01AD-4BF0-859A-5699DC1E5B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6A763E-D29C-42DA-A158-C59987F71AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -43,10 +43,13 @@
     <t>songSelect</t>
   </si>
   <si>
-    <t>laucasj13</t>
-  </si>
-  <si>
-    <t>Sali0313+</t>
+    <t>Ilegal</t>
+  </si>
+  <si>
+    <t>est.cjlucas@smart.edu.co</t>
+  </si>
+  <si>
+    <t>LucasCast13*</t>
   </si>
 </sst>
 </file>
@@ -412,7 +415,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,10 +446,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -455,12 +458,12 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="est.cjlucas@smart.edu.co" xr:uid="{D03727EC-9BF1-45C9-9E00-9D6C01BC584D}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{D03727EC-9BF1-45C9-9E00-9D6C01BC584D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/data/search.xlsx
+++ b/src/main/resources/data/search.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOS\retoSpotify\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6A763E-D29C-42DA-A158-C59987F71AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{6A6A763E-D29C-42DA-A158-C59987F71AD2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="15720" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -56,6 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,19 +92,19 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hipervínculo" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -120,10 +121,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -158,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -210,7 +211,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -321,21 +322,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -352,7 +353,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -404,15 +405,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -420,11 +421,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -458,13 +459,13 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{D03727EC-9BF1-45C9-9E00-9D6C01BC584D}"/>
+    <hyperlink r:id="rId1" ref="A2" xr:uid="{D03727EC-9BF1-45C9-9E00-9D6C01BC584D}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/data/search.xlsx
+++ b/src/main/resources/data/search.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -425,7 +425,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
